--- a/medicine/Mort/Thanatophobie/Thanatophobie.xlsx
+++ b/medicine/Mort/Thanatophobie/Thanatophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La thanatophobie est la phobie de la mort. Cette phobie « n’existe pas dans les classifications psychiatriques classiques », elle est plutôt à relier à des troubles anxieux voire obsessionnels[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thanatophobie est la phobie de la mort. Cette phobie « n’existe pas dans les classifications psychiatriques classiques », elle est plutôt à relier à des troubles anxieux voire obsessionnels.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot est formé à partir du grec ancien θανάτος / thanatos, « mort »[2],[3] et φοβιά / phobia, « peur », ce mot signifie donc étymologiquement « peur de la mort ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot est formé à partir du grec ancien θανάτος / thanatos, « mort », et φοβιά / phobia, « peur », ce mot signifie donc étymologiquement « peur de la mort ».
 Dans la mythologie grecque, Thanatos est la personnification de la mort.
 </t>
         </is>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'évitement
-Pour se protéger de l'objet de leur peur, les thanatophobes évitent toutes les activités à risques[2],[3]. Par exemple prendre le volant, partir en voyage, ou faire du sport. Il n'y a plus que chez eux où ils se sentent en relative sécurité.
-État dépressif
-Toute cette anxiété et ce repli sur soi sont dangereusement liés à l'état dépressif[4].,
+          <t>L'évitement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour se protéger de l'objet de leur peur, les thanatophobes évitent toutes les activités à risques,. Par exemple prendre le volant, partir en voyage, ou faire du sport. Il n'y a plus que chez eux où ils se sentent en relative sécurité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thanatophobie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thanatophobie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Symptômes et conséquences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>État dépressif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute cette anxiété et ce repli sur soi sont dangereusement liés à l'état dépressif.,
 </t>
         </is>
       </c>
